--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aidan McCarron MCIOB</t>
+          <t>Aidan Mc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>John Higgins MCIOB</t>
+          <t>John Higgins</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Higgins MCIOB</t>
+          <t>Higgins</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,7 +516,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Michael Yohanis MCIOB</t>
+          <t>Michael Yohanis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yohanis MCIOB</t>
+          <t>Yohanis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Declan McLogan CMIOSH LL.M</t>
+          <t>Declan Mc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>McLogan CMIOSH LL.M</t>
+          <t>Mc</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -676,17 +676,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lee Robert Gray GradIOSH</t>
+          <t>Lee Robert Gray Grad</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lee Robert </t>
+          <t>Lee Robert</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gray GradIOSH</t>
+          <t>Gray Grad</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Eamonn Laverty. MCIOB</t>
+          <t>Eamonn Laverty</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Laverty. MCIOB</t>
+          <t>Laverty</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -804,17 +804,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sinéad Gorman (she/her)</t>
+          <t>Sinead Gorman</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sinéad</t>
+          <t>Sinead</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Gorman (she/her)</t>
+          <t>Gorman</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -924,7 +924,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nina Salandy    BSc. (Hons.) GradIOSH</t>
+          <t>Nina Salandy</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Salandy    BSc. (Hons.) GradIOSH</t>
+          <t>Salandy</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Phones</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Emails</t>
         </is>
@@ -486,8 +496,18 @@
           <t>McAleer &amp; Rushe</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Project Director</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -510,8 +530,18 @@
           <t>McAleer &amp; Rushe</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Project Director</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cookstown, Northern Ireland, United Kingdom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -534,8 +564,18 @@
           <t>McAleer &amp; Rushe</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Project Director</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -558,8 +598,18 @@
           <t>McAleer &amp; Rushe</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Director of SHEQ</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cookstown</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,10 +634,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Project Director</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>London, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>+44 7826 532410</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>lorcan.mulvey@mcaleer-rushe.co.uk , lorcanmulvey@yahoo.ie , lorcan.mulvey@yahoo.ie , lorcan.mulvey@berkeleygroup.co.uk</t>
         </is>
@@ -614,8 +674,18 @@
           <t>McAleer &amp; Rushe</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>London, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -640,10 +710,20 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Contracts Director</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>London, United Kingdom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>+44 7912 046630</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>darragh.greenan@mcaleer-rushe.co.uk</t>
         </is>
@@ -670,8 +750,18 @@
           <t>McAleer &amp; Rushe</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Project Director</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Belfast Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -696,10 +786,20 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Senior SHEQ Advisor</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Newcastle upon Tyne, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>07872331053</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>leergray3@hotmail.co.uk , lee.gray@mcaleer-rushe.co.uk</t>
         </is>
@@ -726,8 +826,18 @@
           <t>Thornton Roofing</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Construction Operations Manager</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -750,8 +860,18 @@
           <t>McAleer &amp; Rushe</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Project Director</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>London Area, United Kingdom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -774,8 +894,18 @@
           <t>McAleer &amp; Rushe</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Belfast, Northern Ireland, United Kingdom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -798,8 +928,18 @@
           <t>McAleer &amp; Rushe</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Assistant Project Manager</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>London, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -822,8 +962,18 @@
           <t>McAleer &amp; Rushe</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SHEQ Officer</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Belfast, United Kingdom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -848,10 +998,20 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>Head of Buying</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cookstown, N.Ireland</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>+44 28 2565 0003</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>connor.graham@patton.co.uk , connor.graham@mcaleer-rushe.co.uk</t>
         </is>
@@ -880,10 +1040,20 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>Health and Safety Officer</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>London, United Kingdom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>+44 7835 631685</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>cathal.magee@mcaleer-rushe.co.uk , cathal.magee1@hotmail.co.uk</t>
         </is>
@@ -912,10 +1082,20 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>M&amp;E</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Cookstown</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>+55 21 98139-3298 , +55 92 98855-0059 , +55 92 98802-4114</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>bruno.antoniazzi@mcaleer-rushe.co.uk</t>
         </is>
@@ -942,8 +1122,18 @@
           <t>McAleer &amp; Rushe</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Snr. SHEQ Advisor</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>London, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -966,8 +1156,18 @@
           <t>McAleer &amp; Rushe</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Senior Construction Manager</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Belfast, United Kingdom</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -990,8 +1190,18 @@
           <t>McAleer &amp; Rushe</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cookstown, Northern Ireland, United Kingdom</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1014,8 +1224,18 @@
           <t>McAleer &amp; Rushe</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Health and safety administrator</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Wembley, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Emails</t>
+          <t>Email</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,11 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>aidan.mccarron@mcaleer-rushe.co.uk</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -541,7 +545,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>john.higgins@mcaleer-rushe.co.uk</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -575,7 +583,11 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>michael.yohanis@mcaleer-rushe.co.uk</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -609,7 +621,11 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>declan.mc@mcaleer-rushe.co.uk</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -649,7 +665,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>lorcan.mulvey@mcaleer-rushe.co.uk , lorcanmulvey@yahoo.ie , lorcan.mulvey@yahoo.ie , lorcan.mulvey@berkeleygroup.co.uk</t>
+          <t>lorcan.mulvey@mcaleer-rushe.co.uk</t>
         </is>
       </c>
     </row>
@@ -685,7 +701,11 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>gerald.laverty@mcaleer-rushe.co.uk</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -761,7 +781,11 @@
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>steve.morris@mcaleer-rushe.co.uk</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -801,7 +825,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>leergray3@hotmail.co.uk , lee.gray@mcaleer-rushe.co.uk</t>
+          <t>lee.gray@mcaleer-rushe.co.uk</t>
         </is>
       </c>
     </row>
@@ -837,7 +861,11 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>eamonn.laverty@thorntonroofing.com</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -871,7 +899,11 @@
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>eoin.gormley@mcaleer-rushe.co.uk</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -905,7 +937,11 @@
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>paddy.connolly@mcaleer-rushe.co.uk</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -939,7 +975,11 @@
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>daisy.butterworth@mcaleer-rushe.co.uk</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -973,7 +1013,11 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>sinead.gorman@mcaleer-rushe.co.uk</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1013,7 +1057,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>connor.graham@patton.co.uk , connor.graham@mcaleer-rushe.co.uk</t>
+          <t>connor.graham@mcaleer-rushe.co.uk</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1099,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>cathal.magee@mcaleer-rushe.co.uk , cathal.magee1@hotmail.co.uk</t>
+          <t>cathal.magee@mcaleer-rushe.co.uk</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1177,11 @@
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>nina.salandy@mcaleer-rushe.co.uk</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1167,7 +1215,11 @@
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>peter.coyle@mcaleer-rushe.co.uk</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1201,7 +1253,11 @@
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>orran.devine@mcaleer-rushe.co.uk</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1235,7 +1291,11 @@
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>niamh.heneghan@mcaleer-rushe.co.uk</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,851 +451,5794 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Job</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Phones</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Emails</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aidan Mc</t>
+          <t>Simon Drinkwater</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aidan</t>
+          <t>Simon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mccarron</t>
+          <t>Drinkwater</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/simon-drinkwater-b80b3a86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Project Director</t>
+          <t>Briggs &amp; Forrester Group</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>aidan.mccarron@mcaleer-rushe.co.uk</t>
-        </is>
-      </c>
+          <t>Regional Director</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>John Higgins</t>
+          <t>Jules ARLAUD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Jules</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Higgins</t>
+          <t>Arlaud</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/jules-arlaud-30454351</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>VINCI Construction Grands Projets</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Project Director</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cookstown, Northern Ireland, United Kingdom</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>john.higgins@mcaleer-rushe.co.uk</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Birmingham, Inglaterra, Reino Unido</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Michael Yohanis</t>
+          <t>Anthony Hill MCIOB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yohanis</t>
+          <t>Hill MCIOB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/anthony-hill-mciob-79918769</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Project Director</t>
+          <t>Galliford Try</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Belfast</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>michael.yohanis@mcaleer-rushe.co.uk</t>
-        </is>
-      </c>
+          <t>Senior Project Manager</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Shireland CBSO Academy</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Declan Mc</t>
+          <t>John Paul Smyth EngTech MICE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Declan</t>
+          <t>John Paul</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mc</t>
+          <t>Smyth EngTech MICE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/john-paul-smyth-engtech-mice-05781386</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Director of SHEQ</t>
+          <t>Mott MacDonald Bentley | MMB</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cookstown</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>declan.mc@mcaleer-rushe.co.uk</t>
-        </is>
-      </c>
+          <t>Operations Manager</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Barby Reservoir</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lorcan Mulvey</t>
+          <t>Nadia Kaminska</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lorcan</t>
+          <t>Nadia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mulvey</t>
+          <t>Kaminska</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/nadia-kaminska-6570b2a6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Project Director</t>
+          <t>Gleeds</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>London, England, United Kingdom</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>+44 7826 532410</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>lorcan.mulvey@mcaleer-rushe.co.uk</t>
-        </is>
-      </c>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gerald Laverty</t>
+          <t>Rajesh Balakrishnan</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gerald</t>
+          <t>Rajesh</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Laverty</t>
+          <t>Balakrishnan</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/rajesh-balakrishnan-aa9ba248</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Linxon</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>London, England, United Kingdom</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>Project Director</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>gerald.laverty@mcaleer-rushe.co.uk</t>
+          <t>+44 7796 494836 , +91 90333 60637</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>rajeshagain@gmail.com , rajesh.balakrishnan@bbusl.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Darragh Greenan</t>
+          <t>Ouns SOUISSI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Darragh</t>
+          <t>Ouns</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Greenan</t>
+          <t>SOUISSI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/ouns-souissi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Contracts Director</t>
+          <t>VINCI Construction Grands Projets</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Technical Manager</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>+44 7912 046630</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>darragh.greenan@mcaleer-rushe.co.uk</t>
-        </is>
-      </c>
+          <t>Birmingham, Angleterre, Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Steve Morris</t>
+          <t>Adam Cannon BSc,Hons,MCIOB,ACIAT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Steve</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Morris</t>
+          <t>Aciat</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/adam-cannon-bsc-hons-mciob-aciat-419405</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Wates Group</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Project Director</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Belfast Metropolitan Area</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Nottingham City Hub</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>steve.morris@mcaleer-rushe.co.uk</t>
+          <t>+44 7834 121123</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>adam.cannon@wates.co.uk</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lee Robert Gray Grad</t>
+          <t>Firas S.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lee Robert</t>
+          <t>Firas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gray Grad</t>
+          <t>S.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/firas-s-6b446166</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Senior SHEQ Advisor</t>
+          <t>VINCI Construction Terrassement</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Newcastle upon Tyne, England, United Kingdom</t>
+          <t>Agent/Construction Manager</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>07872331053</t>
+          <t>Birmingham, England, United Kingdom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>lee.gray@mcaleer-rushe.co.uk</t>
+          <t>+966 56 853 1525 , +965 552 24828 , +965 566 62676 , +966 13 833 6589 , +966 13 832 8836</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>fsaymeh@freyssinet.sofr.me</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Eamonn Laverty</t>
+          <t>Peter H Ettrick</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Eamonn</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Laverty</t>
+          <t>H Ettrick</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thornton Roofing</t>
+          <t>https://linkedin.com/in/peter-h-ettrick-a7588085</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Construction Operations Manager</t>
+          <t>Morgan Sindall Construction &amp; Infrastructure</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ireland</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>eamonn.laverty@thorntonroofing.com</t>
-        </is>
-      </c>
+          <t>Senior Project Manager</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Eoin Gormley</t>
+          <t>Pedro Marinho</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Eoin</t>
+          <t>Pedro</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Gormley</t>
+          <t>Marinho</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/sitemanagerpedromarinho</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Project Director</t>
+          <t>Barhale Ltd</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>London Area, United Kingdom</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>eoin.gormley@mcaleer-rushe.co.uk</t>
+          <t>+244 926 919 216 , +244 912 255 196</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>pedro.marinho@barhale.co.uk , pedromsqm@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Paddy Connolly</t>
+          <t>Louise Townsend FRSA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Paddy</t>
+          <t>Louise</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Connolly</t>
+          <t>Townsend</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/louise-townsend-2a25a517</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Morgan Sindall Group plc</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Belfast, Northern Ireland, United Kingdom</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>paddy.connolly@mcaleer-rushe.co.uk</t>
-        </is>
-      </c>
+          <t>Director of Just Transition</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Daisy Butterworth</t>
+          <t>Angus Watson BEng CEng MICE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Daisy</t>
+          <t>Angus</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Butterworth</t>
+          <t>Watson BEng CEng MICE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/angus-watson-beng-ceng-mice-1099055a</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Assistant Project Manager</t>
+          <t>Buckingham Group Contracting Ltd</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>London, England, United Kingdom</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>daisy.butterworth@mcaleer-rushe.co.uk</t>
-        </is>
-      </c>
+          <t>Construction Director</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sinead Gorman</t>
+          <t>Daniel Camp</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sinead</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Gorman</t>
+          <t>Camp</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/daniel-camp-86675447</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SHEQ Officer</t>
+          <t>Dodd Group</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Belfast, United Kingdom</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>Head of Retrofit and Building Services</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>sinead.gorman@mcaleer-rushe.co.uk</t>
+          <t>+44 7837 324134 , +44 121 240 3894</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>daniel.camp@willmottdixon.co.uk , danielcamp71@gmail.com , daniel.camp@doddgroup.com</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Connor Graham</t>
+          <t>Maria Teresa Sanchez Sanchez</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Connor</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>Sanchez</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/maria-teresa-sanchez-sanchez-37b06b84</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Head of Buying</t>
+          <t>Freyssinet</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cookstown, N.Ireland</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>+44 28 2565 0003</t>
+          <t>Birmingham, England, United Kingdom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>connor.graham@mcaleer-rushe.co.uk</t>
+          <t>+33 6 95 75 83 92 , DNC</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>sanchezsanchez.mt@gmail.com , maria.teresa@freyssinet.com</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cathal Magee</t>
+          <t>Jarrod Parkin MCIHT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cathal</t>
+          <t>Jarrod</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Magee</t>
+          <t>Mciht</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/jarrod-parkin-mciht-5a0b2635</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Health and Safety Officer</t>
+          <t>Octavius Infrastructure Limited</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Project Director</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>+44 7835 631685</t>
+          <t>Birmingham, England, United Kingdom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>cathal.magee@mcaleer-rushe.co.uk</t>
+          <t>+44 7966 562178 , +44 7772 458225</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>jarrod.parkin@gallifordtry.co.uk , jarrod.parkin@morrisonconstruction.co.uk</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bruno Antoniazzi</t>
+          <t>Danny Forker</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bruno</t>
+          <t>Danny</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Antoniazzi</t>
+          <t>Forker</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/dannyforker</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>M&amp;E</t>
+          <t>Turner &amp; Townsend</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cookstown</t>
+          <t>Project Director</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>+55 21 98139-3298 , +55 92 98855-0059 , +55 92 98802-4114</t>
+          <t>Birmingham, England, United Kingdom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>bruno.antoniazzi@mcaleer-rushe.co.uk</t>
+          <t>+55 21 98392-5858 , +55 21 98392-5588 , +55 21 98391-9504</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>danny.forker@nichols.uk.com , danny.forker@gmail.com , daniel.forker@yahoo.com , danny.forker@btinternet.com , daniel.forker@angloamerican.com</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nina Salandy</t>
+          <t>Maciej Krezolek</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nina</t>
+          <t>Maciej</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Salandy</t>
+          <t>Krezolek</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/maciejkrezolek</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Snr. SHEQ Advisor</t>
+          <t>Cundall</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>London, England, United Kingdom</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>Digital Automation &amp; Analytics Lead</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>nina.salandy@mcaleer-rushe.co.uk</t>
+          <t>+44 7740 820947 , +44 7884 268992</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>maciejkrezolek@cundall.com</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Peter Coyle</t>
+          <t>Frederic Hubert</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Frederic</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Coyle</t>
+          <t>Hubert</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/frederic-hubert-74a74b37</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Senior Construction Manager</t>
+          <t>Soletanche Bachy</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Belfast, United Kingdom</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>Project Director</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>peter.coyle@mcaleer-rushe.co.uk</t>
+          <t>+852 9133 1983</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>frederic.hubert@soletanche-bachy.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Orran Devine</t>
+          <t>Kamil Kosierkiewicz</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Orran</t>
+          <t>Kamil</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Devine</t>
+          <t>Kosierkiewicz</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/kamil-kosierkiewicz-5a35b1151</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>KELLER</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cookstown, Northern Ireland, United Kingdom</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>orran.devine@mcaleer-rushe.co.uk</t>
-        </is>
-      </c>
+          <t>Construction Manager</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Poland, Latvia,</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Niamh Heneghan</t>
+          <t>Mohamed Abdelaal, PhD, MCIOB, PMP</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Niamh</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Heneghan</t>
+          <t>Abdelaal, PhD, MCIOB, PMP</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>McAleer &amp; Rushe</t>
+          <t>https://linkedin.com/in/mohamed-abdelaal-phd-mciob-pmp-5757b228</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Health and safety administrator</t>
+          <t>SISK Group</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Wembley, England, United Kingdom</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Senior Projects Controls Manager</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>United Kingdom &amp; Ireland</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>niamh.heneghan@mcaleer-rushe.co.uk</t>
-        </is>
-      </c>
+          <t>+974 6651 8730 , +974 5530 2606 , +974 3109 3309</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>mohamed.abdelaal@siskgroup.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Damion Guest MCIOB</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Damion</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Guest MCIOB</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/damionguest</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>McLaren Construction Group</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Group Technical Manager</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Birmingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>+44 7772 004844</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>damion.guest@mclarengroup.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Lee Ebbutt</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ebbutt</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/lee-ebbutt-0b57146</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Careys</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Group Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>London, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>+968 9989 9496</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>melebbutt@yahoo.co.uk , lee.ebbutt@omanairports.com , lee.ebbutt@careysplc.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Will Hadley</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Will</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Hadley</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/will-hadley-9b5a093a</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Wates Group</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Birmingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>+44 7917 554127</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>will.hadley@stylesandwood.co.uk , will.hadley@wates.co.uk , william.hadley@wates.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Aleksandra Jadanowska, CEng FCIHT NECReg</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Jadanowska</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/aleksandrajadanowska</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Turner &amp; Townsend</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Senior Project Manager</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Omar Ali</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ali</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/omar-ali-187b3166</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Barratt Developments plc</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Technical Manager</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Midlands </t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Asif MEMON PMP,GMICE</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>M.asce</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Asif memon</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/asif-memon-p-e-m-asce-lead-auditor-upda-registered-9386539</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>VINCI Construction Terrassement</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Quality Manager</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>+971 52 674 3786 , +971 55 778 6785 , +92 333 2600947 , +966 50 634 9064 , +971 50 314 5970 , +974 6632 2758</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>memonasifkadir@hotmail.com , asif.registered@arcadis.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Liz Hughes MEng MBA CEng FICE MCMI</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liz</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/liz-hughes-525a9641</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Story Contracting Limited</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Technical Director</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Solihull, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>+44 7585 606190</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>liz.hughes@amey.co.uk , liz.hughes@carillionplc.com , lizhughes1972@btinternet.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Gary Reay MCIOB RICS CCM</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Gary Reay</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MCIOB RICS CCM</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/gary-reay-mciob-rics-ccm-a0250b54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>McLaren Construction Group</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Project Director</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>07772341485</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>gjr.buildingservices@yahoo.com , gary.reay@mclarengroup.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Shervin Deh Bozorgi</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Shervin</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Deh Bozorgi</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/shervin-deh-bozorgi-86a80229</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>John Sisk &amp; Son Ltd</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Digital Transformation Strategy Lead</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>St. Albans, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Andrew Vernon</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Vernon</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/andrew-vernon-502a6562</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Hoare Lea</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sector Director of Healthcare</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Birmingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>+44 7733 892523</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>andyvernon@hoarelea.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Yves Piat</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Yves</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Piat</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/yves-piat-b85737130</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>VCGP</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Director Major Structures</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>HS2 (High Speed 2) - UK Birmingham</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Scott Tudor</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Tudor</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/scotttudor</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>J. Murphy &amp; Sons Limited</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Senior Project Manager</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Cannock, Staffordshire, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Adam Francis MIET</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Francis</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/adam-francis-miet-3ba32819</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Briggs &amp; Forrester Group</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Electrical Project Manager</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Birmingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>+44 7986 706692 , +44 7534 908162 , +44 7488 252533 , 07854479856</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>darkeye74@me.com , adam.francis@briggsandforrester.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Steve Jennings</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Steve</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Jennings</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/steve-jennings-326121234</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SES Engineering Services</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Regional Technical Director</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Peter Carolan</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Carolan</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/peter-carolan-7aa54a3a</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Morrison Energy Services</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Solihull, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Samuel Clarke FCIOB</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Clarke FCIOB</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/samuel-clarke-fciob-6574354b</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Lovell Partnerships Ltd</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Regional Operations Director</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>East Midlands</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chris Young</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Young</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/chrisyoung6</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Waterman Aspen</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Board Director</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>+44 7812 193835 , +44 7500 944194</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>chris.young@watermanaspen.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Lee McEvoy</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Mcevoy</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/lee-mcevoy-9a60361</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Reliable Contractors</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Operations Manager (North)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>+44 7974 645197 , +44 7456 292559 , +44 121 608 6425 , +44 121 234 6180 , +44 121 616 7150</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>lee.mcevoy@fusionpeople.com , leemcevoy07@yahoo.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sandy Forbes</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sandy</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Forbes</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/sandy-forbes-6135bb41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>MV Kelly Ltd</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>West Midlands, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>+44 7966 137766</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>sandy.forbes@mvkelly.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Marc Rostron MRICS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Marc</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Rostron MRICS</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/marc-rostron-mrics-153a6854</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Turner &amp; Townsend</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Luke Blyth</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Blyth</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/luke-blyth-9855979b</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Hoare Lea</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Project Director</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>+44 7557 442512 , +44 121 450 4808</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>lukeblyth@hoarelea.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>David Pyatt MRICS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Pyatt MRICS</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/david-pyatt-mrics-7b405242</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>AtkinsRèalis</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Stoke-on-Trent, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>+44 7825 108141</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>david.pyatt@fgould.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Marcus Thompson</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Marcus</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/marcus-thompson-556a1062</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Morris Homes Ltd</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Technical Director</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>West Midlands, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mark Greasby MCIOB</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Greasby MCIOB</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/mark-greasby-mciob-a9009841</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>St. Modwen</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Construction Director</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Birmingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Darren Mockble</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Darren</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Mockble</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/darren-mockble-40044697</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>M.V. Kelly Ltd</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Head Office Director </t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Solihull, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Paul Whelan</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Whelan</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/paul-whelan-033282207</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>MV Kelly Limited</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Solihull, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sarah Duffy</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Duffy</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/sarah-duffy-70778994</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>M.V. Kelly Ltd</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Head of SHE</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>+44 7969 789458</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>sarah.duffy76@yahoo.co.uk , sarah.duffy@mvkelly.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Louise Perry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Louise</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Perry</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/louise-perry-8866231a</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Comex 2000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>SSHEQ Director</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Derby, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>+44 7802 890436 , +44 7530 002091 , +44 1902 316912</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>louise.perry@carillionplc.com , louiser2007@yahoo.co.uk , l.perry@comex2000.co.uk , louise.rhydderch@mowlem.com , louise.rhydderch@carillionplc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Dr Julian De Voy</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Dr Julian</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>De Voy</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/dr-julian-de-voy-62693a88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HKA </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Technical Director</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Clare Brown</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Clare</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/clare-brown-79465313</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>BAM Nuttall Ltd</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Health And Safety Lead </t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Birmingham, West Midlands, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ian Whittle</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Whittle</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/ian-whittle-047752200</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Whg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Construction quality manager</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>West midlands</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Nick Kaminiotis</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Kaminiotis</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/nickkaminiotis</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Waterman Aspen</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Associate Director</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Matt Hall</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Hall</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/matthallpellfrischmann</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Pell Frischmann</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Divisional Director</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Stephan Bernhard</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Stephan</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Bernhard</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/stephan-bernhard-a2813831</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>VINCI Construction GeoInfrastructure</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Delivery Design Director</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Angleterre, Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>+33 6 20 21 39 41</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>stephbernhard@hotmail.com , sbernhard@vinci-construction-terrassement.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jeremiah Sheehan</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sheahan</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/jerry-sheahan-76436418</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Lendlease</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Construction Director</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>West Midlands, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>+61 8 8983 9400</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>jerry.sheahan@lendlease.com , jeremiah705@aol.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Darren Humphreys</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Darren</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Humphreys</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/darren-humphreys-5ab75119</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Miller Homes Ltd</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Regional Managing Director</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>West Midlands, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>+44 121 629 1300 , +44 121 629 1301 , +44 121 629 1329 , +44 121 713 6300</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>dhumphreys@cala.co.uk , dwright@cala.co.uk , darren.humphreys@tiliahomes.co.uk , darren.humphreys@mccarthyandstone.co.uk , darren.humphreys@dementiacarers.org.uk , darren.humphreys@rectory.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Nick Preedy</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Preedy</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/nick-preedy-064204207</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Willmott Dixon</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Project Lead</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Nelson T.</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Tanyanyiwa</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/nelson-munyaradzi-tanyanyiwa-9a058638</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Dunton</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Group Development Director</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>+44 7833 221922</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>mnelta@gmail.com , nelson@duntonenvironmental.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Gary Cramp ,MCIOB</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Gary</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Cramp ,MCIOB</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/gary-cramp-mciob-948b4527</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>McLaren Construction Group</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Managing Director McLaren (M&amp;N)</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Tommy Owens</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Tommy</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Owens</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/tommy-owens-22734458</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>M.V. Kelly Ltd</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Contract Manager</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>East midlands</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michael Spanczak</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Spanczak</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/michael-spanczak-1448a14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Turner &amp; Townsend</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Project Director</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>+44 7753 970209 , +44 121 262 1100</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>michael.spanczak@turntown.co.uk , michael.spanczak@turntown.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>John Moriarty</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Moriarty</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/john-moriarty-4921b172</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>McDermott Building &amp; Civil Engineering Limited</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Production Director</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Birmingham United Kingdom</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Alex Carlin</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Carlin</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/alex-carlin-61548b34</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Bovis Homes</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Regional Operations Director</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Staffordshire</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>+44 7977 334893 , +44 7804 219902 , +44 7989 209793 , +44 7982 152893</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>alex.carlin@bovishomes.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Jonathan Pratt</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Pratt</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/jonathan-pratt-775a40113</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>FP McCann Ltd</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>National Roofing Manager</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>+44 7814 992322</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>jonathan.pratt@fpmccann.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Ilyas Mohammad</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Ilyas</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Mohammad</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/ilyas-mohammad-1a373b43</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Turner &amp; Townsend</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Project Director</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Mert Sahin</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Mert</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Miirsm</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/mert-sahin-idipsm-techiosh-miirsm-3a74a036</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>AtkinsRéalis</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Senior Health and Safety Consultant</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>West Midlands, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chris Russell</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Russell</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/christopherrussell2</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>M.V. Kelly Ltd</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Corporate Development Director</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Midlands</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>+263 77 410 4727 , +44 7824 550958</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>chris.russell@baringa.com , chris.russell@tonikenergy.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Joe McDermott</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Joe</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Mcdermott</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/joe-mcdermott-872ab2b6</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>McDermott Building and Civil Engineering Limited</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Sutton Coldfield, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Simon Wingate</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Simon</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Wingate</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/simon-wingate-2a132330</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Lovell Partnerships Ltd</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Regional Partnerships Director</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>HAVARD LOUIS XAVIER</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>HAVARD</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>LOUIS XAVIER</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/havard-louis-xavier-94431084</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>VINCI Construction Grands Projets</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Directeur des travaux</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Birmingham UK</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Vladimiro Guerra GradIOSH, civil engineer</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Vladimiro</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Guerra</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/vladimiro-guerra-529a0240</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>VINCI Construction Terrassement</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>senior H&amp;S BBV</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>+44 7709 799631 , +351 914 316 390</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>vlad.guerra@gmail.com , vladimiro.guerra@novopca.pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Kieran Gadd</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Kieran</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Gadd</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/kieran-gadd-675a30119</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Midland Metro Alliance</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Health And Safety Manager</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>+44 845 603 2112</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>kieran.gadd@hotmail.co.uk , kieran.gadd@metroalliance.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Wayne Hickling</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Wayne</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Hickling</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/wayne-hickling-34694b47</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Galliford Try</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Engineering Director</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ian White</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/ian-white-594a4314</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>McLaughlin &amp; Harvey Ltd</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Business Development Director</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>+44 121 717 5412 , +44 7718 516462</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>ian.white@miller.co.uk , ian.white@gallifordtry.co.uk , ian.white@mclh.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Dean Freeman</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Dean</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Freeman</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/dean-freeman-66153237</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NTT Global Data Centers EMEA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>EMEA Head of Construction Cost Management</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>+44 7808 824387</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>deanfree72@yahoo.co.uk , dean.freeman@siemens.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Nigel Jones</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Nigel</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/nigel-jones-7a21a926</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Buckingham Group Contracting Ltd</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Preconstruction Director</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Birmingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>+44 7799 850834 , +44 7966 873707</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>nigel.jones@thomasvale.com , nigel.jones@mclarengroup.com , nigel.jones@buckinghamgroup.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jinliang Zhu</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Jinliang</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Zhu</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/jinliang-zhu-aa282783</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Pell Frischmann</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Technical Director</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Emil Delport</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Emil</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Delport</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/emil-delport-3b398b56</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Freyssinet</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Project Director</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Adam Tippins</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Tippins</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/adam-tippins-430a3611b</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Bloor Homes</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Regional Commercial Director</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>East Midlands, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Sudhir Sahaya</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Sudhir</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Sahaya</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/sudhir-sahaya-0321a169</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>FERROVIAL AGROMAN (UK) LIMITED</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Assistant Project Manager</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Anthony Davidson</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Davidson</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/anthony-davidson-ab451014</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Story Contracting Limited</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Construction Manager</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Coventry, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Russell Bailey</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Russell</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Bailey</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/russell-bailey-9996b2b</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Faithful+Gould</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Regional Director - Building Surveying &amp; Project Management</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Birmingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>+44 7815 243656 , +44 7990 566448</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>russell.bailey@davislangdon.com , russell.bailey@fgould.com , russellbailey@fgould.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Richard Smith</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/richard-smith-402778b2</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Wedge Group Galvanizing Ltd</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Director of ICT</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Willenhall, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>James Walsh</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Walsh</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/james-walsh-1a195217</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Turner &amp; Townsend</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>+44 7795 431970</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>james.walsh@turntown.co.uk , james.walsh@arcadis.com , james.walsh@turntown.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>brian wiley</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Wiley</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/brian-wiley-95893877</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Morgan Sindall Construction &amp; Infrastructure</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Birmingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Danny Green</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Danny</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/danny-green-91b10026</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Waterman Aspen</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Divisional Director</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Birmingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>07500 944195</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>danny.green@watermanaspen.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Shirley Reynolds</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Shirley</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Reynolds</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/dr-shirley-reynolds</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Waterman Aspen</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Regional Director</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>West Midlands, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Alireza R.Yeganeh</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Alireza</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>R.Yeganeh</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/alireza-r-yeganeh-a48b3550</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Waterman Aspen</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Associate Director</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>0044(0)7859065912</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>alireza_r22@yahoo.com , alireza.r@watermanaspen.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Sufi Jamadar</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Sufi</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Jamadar</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/sufijamadar</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>BYLOR Joint Venture</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Digital Engineer</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Bridgwater, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>+44 7404 416853</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>sufi.jamadar@bouygues-uk.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Tanweer Araf</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Tanweer</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Araf</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/tanweer-araf-2b336228</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Waterman Aspen</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Divisional Director</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Richard Lennon</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Lennon</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/richard-lennon-8a467216</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>M.V. Kelly Ltd</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Head of IT</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Birmingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>+44 1926 468300 , +44 1926 468400</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>richard6145@aol.com , richardlennon84@gmail.com , richard.lennon@focus-solutions.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Conchita Munar CEng MICE</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Conchita</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Munar CEng MICE</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/conchita-munar</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Waterman Aspen</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Associate Director</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Mark Lucas MSc MRICS MCIArb</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Lucas</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/mark-lucas-msc-86097b32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>RICS</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Vice Chair</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Matt Colebrook</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Colebrook</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/matt-colebrook-25b50348</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Hoare Lea</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Associate Director</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Clare Jones</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Clare</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/clare-jones-42768b</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Mace</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Group Procurement Director</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>London, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>07702 636 555</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>clare.l.jones@carillionplc.com , clare.jones@carillionplc.com , clare.jones@macegroup.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Hassan Emam, PhD</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Hassan</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Emam</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/hassanemam</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>John Sisk &amp; Son Ltd</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Group Project Controls Lead</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Worldwide </t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Femi Salami</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Femi</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Salami</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/femi-salami-2373261a3</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Rider Levett Bucknall</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Garry McDonald</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Garry</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Mcdonald</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/garrymcdonald</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Miller Homes Ltd</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Group Quality Director</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>+1 949-285-2584</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>garry.mcdonald@miller.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Craig Evans BSc (Hons) MRICS AIFireE MIFSM IMaPS</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Craig</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Evans BSc (Hons) MRICS AIFireE MIFSM IMaPS</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/craig-evans-bsc-hons-mrics-aifiree-mifsm-imaps-185b091b</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Gleeds</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Project Director</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Gary Johnstone</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Gary</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Johnstone</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/gary-johnstone-52aab2101</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Menfor Group</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Health And Safety Manager</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Birmingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Carl Saxon</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Carl</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Saxon</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/carl-saxon-58395731</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Hoare Lea</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>+44 7791 938724 , +44 121 450 4835</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>carlsaxon@birmingham.hoarelea.com , carlsaxon@hoarelea.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Dewayne Brown</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Dewayne</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/dewayne-brown-984b4b24</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Fortem Solutions</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Site Manager</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>+44 7757 411039 , +44 7575 632505</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>dewayne.brown@fortem.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Rajpreet Singh</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Rajpreet</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Singh</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/rajpreet-singh-136048271</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Waterman Aspen</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Associate Director</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>West Midlands, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sofi Liperis</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Sofi</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Liperis</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/sofi-liperis-b0838650</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Bloor Homes</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Land Director</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Tamworth, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Clare Partridge</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Clare</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Partridge </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/clare-partridge-18a27296</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Aggregate Industries UK</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Head of Health &amp; Safety</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Bardon Hill, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Michael Whitcroft</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Whitcroft</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/michael-whitcroft-b9b5a721b</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Hoare Lea</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Associate Director - Acoustics</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Christopher S.</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>S.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/christopher-s-644b07115</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>AtkinsRealis</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Senior Safety Consultant</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Ian Farrell ACMA CGMA</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Farrell ACMA CGMA</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/ian-farrell-acma-cgma-a840b937</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Severn Trent Water</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Finance Director</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Coventry, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Amir Sepehr Nasiri</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Amir Sepehr</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Nasiri</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/amir-sepehr-nasiri-479b4b168</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Fortem Solutions</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Assistant Construction Manager</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Daniel Pryor</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Pryor</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/daniel-pryor-3268928a</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Barratt Developments plc</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Land Director</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Halesowen, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Lukasz Mazur</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Lukasz</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Mazur</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/lukasz-mazur-132992182</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Wardell Armstrong LLP</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Associate Director - Landscape</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Longbridge, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>John Frayne</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Frayne</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/john-frayne-321011b</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Waterman Aspen</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Birmingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>+44 7726 694835 , +44 1509 674567</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>john.frayne@watermanaspen.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Kerry Whitehouse</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Kerry</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Whitehouse</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/kerry-whitehouse-b095252b</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Wardell Armstrong LLP</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Technical Director</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>George Dawson</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>George</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Dawson</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/george-dawson-798b46144</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Dodd Group</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Strategic Projects Director</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Aidan Smith</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Aidan</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/aidan-smith-a3a407173</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Galliford Try Construction</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Project Director</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Birmingham, West Midlands, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Nicky Dixey Chartered FCIPD</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Nicky</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Dixey Chartered FCIPD</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/nicky-dixey-chartered-fcipd-a4b6a920</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Ridge and Partners LLP</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Group People Director</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Birmingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>+1 267-226-2449 , +1 267-978-0517 , +55 21 2719-1709 , +1 267-639-4464</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>nickyjwelch@yahoo.co.uk , nicky.dixey@ridge.co.uk , nicolawelch1@gmail.com , nicolawelch4@gmail.com , leaff23@gmail.com , shiannwelch0@gmail.com , topdivalisa@yahoo.com , shocky306@hotmail.com , nicolawelch75@hotmail.com , kristieharrington@yahoo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Gordon M. Dodd   MCIOB</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Gordon M.</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Dodd   MCIOB</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/gordon-m-dodd-mciob-08377020</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>BOUYGUES UK</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Project Lead</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Birmingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Gerry Green</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Gerry</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/gerry-green-26b71896</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Joseph Ash Galvanizing</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Operations Director</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>West Midlands, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Darren Weston</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Darren</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Weston</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/darren-weston-48860133</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Colas Ltd</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>National SHEQ Manager Colas UK Projects</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>West Midlands, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Fiona Lane</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Fiona</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/fiona-lane-22b2613b</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Dyer &amp; Butler</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Head of Proposals</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>nationwide</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Rachel Bristow</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Rachel</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Bristow</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/rachel-bristow-12a4a0b5</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Taylor Wimpey plc</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Senior Technical Manager</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Warwickshire, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>+44 7469 022023 , +44 7872 510730</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>rachel.bristow@taylorwimpey.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Paul Judd</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Judd</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/paul-judd-41319a13</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Hoare Lea</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Associate Director</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Kevin Hole</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Hole</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/kevin-hole-95089332</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Faithful+Gould</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>West Midlands, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>+1 256-479-8309 , +1 800-748-9523 , +1 617-423-5548 , +1 212-252-7070</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>kevin.hole@fgould.com , kevin.hole@atkinsfgould.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Christopher Newman</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Newman</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/christopher-newman-6805b4123</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Joseph Ash Galvanizing</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Health And Safety Manager</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Walsall, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Matthew Hetherington AIEMA Grad IOSH</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Hetherington AIEMA Grad IOSH</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/matthew-hetherington-aiema-grad-iosh-755a22134</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Mace</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Health And Safety Manager</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Anish Chhatralia</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Anish</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Chhatralia</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/anish-chhatralia-43875b215</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Faithful+Gould</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Associate Director</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>John Parkin</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Parkin</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/john-parkin-3690ba99</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Waterman Aspen</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Regional Director - Water and Environment West</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>+44 1733 267728</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>john.parkin@aecom.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Luke Howard CMIOSH</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Howard CMIOSH</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/luke-howard-cmiosh-72a9729a</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>BAM Construct UK</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Health &amp; Safety Adviser</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Midlands</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Paul Sultana</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Sultana</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/paul-sultana-8367171b</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Kinetics</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>QHSE Manager - Midlands Region</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>West Midlands, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>+44 7449 789532 , +44 7977 511063 , +44 7866 735953</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>paul.sultana@kineticsgroup.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Nicole Allen</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Nicole</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Allen</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/nicole-allen-5a88bb139</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>McLaren Construction Group</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Personal Assistant to Regional Managing Director (M&amp;N)</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Birmingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Meena Cheema</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Meena</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Cheema</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/meena-cheema-a20468160</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Waterman Aspen</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Associate Director</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Birmingham, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Elliott Millin</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Elliott</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Millin</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/elliottmillin</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Rider Levett Bucknall</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Head Of Digital Services</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>+44 7740 733151</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>mis@uk.rlb.com , elliott.millin@uk.rlb.com , elliottmillin@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Mike Tso</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Tso</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/mike-tso-89567549</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Hoare Lea</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Partner</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>West Midlands, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>+44 7976 333238</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>miketso@hoarelea.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Tony Fitzgerald</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Fitzgerald</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/tony-fitzgerald-849a308a</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Morgan Sindall (Construction &amp; Infrastructure)</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Project director</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>West Midlands, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Callum Stone</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Callum</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Stone</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/callum-stone-789a31218</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>The International Civil Aviation Organization</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Regional Director</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Warwickshire, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
